--- a/biology/Botanique/Pigment_photosynthétique/Pigment_photosynthétique.xlsx
+++ b/biology/Botanique/Pigment_photosynthétique/Pigment_photosynthétique.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Pigment_photosynth%C3%A9tique</t>
+          <t>Pigment_photosynthétique</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Les pigments photosynthétiques  ou pigments assimilateurs, sont les composés chimiques permettant la transformation de l'énergie lumineuse en énergie chimique chez les organismes effectuant la photosynthèse. 
 Lorsqu'un photon heurte une molécule de pigment photosynthétique, son énergie excite un atome de cette molécule et la fait passer à un état excité, de niveau énergétique élevé. L'énergie accumulée dans la molécule de pigment est libérée lors du retour à l'état fondamental de la molécule ; il y a trois voies de libération de cette énergie en plus d'un dégagement de chaleur :
@@ -498,7 +510,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Pigment_photosynth%C3%A9tique</t>
+          <t>Pigment_photosynthétique</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -516,7 +528,9 @@
           <t>Les pigments actifs</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t>Chlorophylle a - un pigment bleu-vert
 Bactériochlorophylle</t>
@@ -529,7 +543,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Pigment_photosynth%C3%A9tique</t>
+          <t>Pigment_photosynthétique</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -547,7 +561,9 @@
           <t>Les pigments accessoires</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Carotène - un pigment orange
 Chlorophylle b - un pigment jaune-vert
